--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_2_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_2_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2928937563209928</v>
+        <v>0.2350588200591702</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2928937563209928</v>
+        <v>0.2350588200591702</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.57210065146498</v>
+        <v>5.726471369634215</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.7267670706968232, 13.870968373626784]</t>
+          <t>[-2.874005894916083, 14.326948634184513]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1830277866878356</v>
+        <v>0.1866328995261668</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1830277866878356</v>
+        <v>0.1866328995261668</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.484316048542925</v>
+        <v>-1.157263359880925</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.585027116049967, 1.6163950189641172]</t>
+          <t>[-4.283132326515813, 1.9686056067539637]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3401211498362438</v>
+        <v>0.4597478254832803</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3401211498362438</v>
+        <v>0.4597478254832803</v>
       </c>
       <c r="T2" t="n">
-        <v>13.02091048459779</v>
+        <v>13.26178477560419</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.153085250730264, 17.888735718465323]</t>
+          <t>[8.601686479455184, 17.921883071753193]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.506761578091599e-06</v>
+        <v>7.797539856024827e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.506761578091599e-06</v>
+        <v>7.797539856024827e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>5.298778778778793</v>
+        <v>4.180980980981001</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.770280280280296</v>
+        <v>-7.112212212212244</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.36783783783788</v>
+        <v>15.47417417417425</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1346925774826523</v>
+        <v>0.3203274233532362</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1346925774826523</v>
+        <v>0.3203274233532362</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.504127010419015</v>
+        <v>4.252516734964397</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.07238531478378, 13.080639335621811]</t>
+          <t>[-2.5047789921010395, 11.009812462029833]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1503655359460057</v>
+        <v>0.2114892915638718</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1503655359460057</v>
+        <v>0.2114892915638718</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.754736973835386</v>
+        <v>0.03144737390980712</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.868026990906352, 2.35855304323558]</t>
+          <t>[-3.018947895341543, 3.081842643161157]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.6277312811237854</v>
+        <v>0.9835257505258241</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6277312811237854</v>
+        <v>0.9835257505258241</v>
       </c>
       <c r="T3" t="n">
-        <v>11.58200020004529</v>
+        <v>11.46072010250021</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.708753355499699, 15.455247044590873]</t>
+          <t>[7.402289872890225, 15.519150332110186]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.889399299821349e-07</v>
+        <v>9.059776504560801e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.889399299821349e-07</v>
+        <v>9.059776504560801e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>2.694294294294302</v>
+        <v>22.5863863863865</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.419669669669695</v>
+        <v>11.56586586586593</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.8082582582583</v>
+        <v>33.60690690690707</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5211419764960075</v>
+        <v>0.1905841411259122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5211419764960075</v>
+        <v>0.1905841411259122</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.525943478621193</v>
+        <v>4.968635449726229</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.971087930402804, 12.022974887645189]</t>
+          <t>[-2.316315395219778, 12.253586294672235]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4076968754588401</v>
+        <v>0.1763394666888563</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4076968754588401</v>
+        <v>0.1763394666888563</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.8176317216550011</v>
+        <v>-0.6037895790683088</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.956079637853813, 2.3208161945438106]</t>
+          <t>[-3.679342747447506, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.6023559687572053</v>
+        <v>0.694410994680541</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6023559687572053</v>
+        <v>0.694410994680541</v>
       </c>
       <c r="T4" t="n">
-        <v>11.31941057136863</v>
+        <v>10.13936590407748</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.920246037102611, 15.718575105634649]</t>
+          <t>[6.272633753967122, 14.006098054187843]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.999142052319883e-06</v>
+        <v>3.585132100747401e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>4.999142052319883e-06</v>
+        <v>3.585132100747401e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>2.918818818818828</v>
+        <v>2.181381381381392</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.284954954954978</v>
+        <v>-8.930030030030075</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.12259259259263</v>
+        <v>13.29279279279286</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3358883678607447</v>
+        <v>0.4593964802388412</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3358883678607447</v>
+        <v>0.4593964802388412</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.005517991742483</v>
+        <v>4.22474695093914</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.919295540471534, 10.9303315239565]</t>
+          <t>[-4.585798112881198, 13.035292014759479]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2501507414982129</v>
+        <v>0.3393145053080304</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2501507414982129</v>
+        <v>0.3393145053080304</v>
       </c>
       <c r="P5" t="n">
-        <v>0.006289474781961069</v>
+        <v>-0.1509473947670772</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.943474197958005, 2.956053147521927]</t>
+          <t>[-3.2579479370560818, 2.9560531475219274]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9965925062740513</v>
+        <v>0.9224850234278157</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9965925062740513</v>
+        <v>0.9224850234278157</v>
       </c>
       <c r="T5" t="n">
-        <v>11.53476419827832</v>
+        <v>11.35569502648722</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.607539365280729, 15.461989031275913]</t>
+          <t>[6.4518670925978405, 16.259522960376597]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.164776785664515e-07</v>
+        <v>2.790272161945495e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.164776785664515e-07</v>
+        <v>2.790272161945495e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>22.40754754754762</v>
+        <v>0.5453453453453463</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.87734734734738</v>
+        <v>-10.67967967967973</v>
       </c>
       <c r="Z5" t="n">
-        <v>32.93774774774785</v>
+        <v>11.77037037037043</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2358832807891353</v>
+        <v>0.1426683896670911</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2358832807891353</v>
+        <v>0.1426683896670911</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.184223341958829</v>
+        <v>5.986278241489513</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.526742330191123, 10.89518901410878]</t>
+          <t>[-1.6664472826726673, 13.639003765651694]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2156790720566086</v>
+        <v>0.1221427218393907</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2156790720566086</v>
+        <v>0.1221427218393907</v>
       </c>
       <c r="P6" t="n">
-        <v>0.698131700797731</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.390000417145388, 3.78626381874085]</t>
+          <t>[-1.9623161319720026, 4.063000709147159]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.6510635397233875</v>
+        <v>0.4861690084023489</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6510635397233875</v>
+        <v>0.4861690084023489</v>
       </c>
       <c r="T6" t="n">
-        <v>8.945225895098858</v>
+        <v>11.41230699560936</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.50342973362295, 12.387022056574766]</t>
+          <t>[7.253625971200991, 15.57098802001772]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.195442416143891e-06</v>
+        <v>1.562911660979438e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.195442416143891e-06</v>
+        <v>1.562911660979438e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>19.93777777777784</v>
+        <v>18.9053053053054</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.913623623623655</v>
+        <v>8.02112112112116</v>
       </c>
       <c r="Z6" t="n">
-        <v>30.96193193193202</v>
+        <v>29.78948948948963</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1188853470402311</v>
+        <v>0.5351925537933921</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1188853470402311</v>
+        <v>0.5351925537933921</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.026944409977228</v>
+        <v>3.364654037275177</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.7696024542398803, 13.823491274194335]</t>
+          <t>[-4.503688130155959, 11.232996204706314]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1264864870366442</v>
+        <v>0.3936559123619738</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1264864870366442</v>
+        <v>0.3936559123619738</v>
       </c>
       <c r="P7" t="n">
-        <v>0.672973801669885</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.3333951441077354, 3.6793427474475053]</t>
+          <t>[-2.094395102393195, 4.1699217804405055]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.6542585464781911</v>
+        <v>0.5079733878730888</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6542585464781911</v>
+        <v>0.5079733878730888</v>
       </c>
       <c r="T7" t="n">
-        <v>10.83830988219945</v>
+        <v>10.4673292570024</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.780503347109702, 14.896116417289191]</t>
+          <t>[6.279595605950922, 14.655062908053873]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.574411088085427e-06</v>
+        <v>8.205694177254585e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>2.574411088085427e-06</v>
+        <v>8.205694177254585e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>20.02758758758765</v>
+        <v>18.95075075075084</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.295315315315344</v>
+        <v>7.634834834834875</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.75985985985996</v>
+        <v>30.26666666666681</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3251027633446626</v>
+        <v>0.06248791481809868</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3251027633446626</v>
+        <v>0.06248791481809868</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.921637758740298</v>
+        <v>6.770076371800455</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.785123948859969, 13.628399466340564]</t>
+          <t>[-0.551369532505765, 14.091522276106675]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2609348842084593</v>
+        <v>0.06907999543114807</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2609348842084593</v>
+        <v>0.06907999543114807</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6855527512338089</v>
+        <v>0.5849211547224229</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.4340267406191187, 3.8051322430867365]</t>
+          <t>[-1.2830528555201557, 2.4528951649650015]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.660164209882816</v>
+        <v>0.5314406762817514</v>
       </c>
       <c r="S8" t="n">
-        <v>0.660164209882816</v>
+        <v>0.5314406762817514</v>
       </c>
       <c r="T8" t="n">
-        <v>12.34763491580261</v>
+        <v>12.98952353645917</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.74206434097219, 16.95320549063303]</t>
+          <t>[8.997130499047518, 16.98191657387083]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.404384743082133e-06</v>
+        <v>4.701262534823059e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>2.404384743082133e-06</v>
+        <v>4.701262534823059e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>19.98268268268274</v>
+        <v>20.58678678678689</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.846266266266294</v>
+        <v>13.83813813813821</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.11909909909919</v>
+        <v>27.33543543543556</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06560875715582548</v>
+        <v>0.3156069291223451</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06560875715582548</v>
+        <v>0.3156069291223451</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.026550394473258</v>
+        <v>4.121649384547233</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.14316259034225354, 14.19626337928877]</t>
+          <t>[-2.407857064980549, 10.651155834075015]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0545528690682342</v>
+        <v>0.2101288365450942</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0545528690682342</v>
+        <v>0.2101288365450942</v>
       </c>
       <c r="P9" t="n">
-        <v>1.691868716347656</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.2830263651882694, 3.100711067507043]</t>
+          <t>[-1.522052897234695, 4.679369237779391]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0196824647584497</v>
+        <v>0.3106383861146922</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0196824647584497</v>
+        <v>0.3106383861146922</v>
       </c>
       <c r="T9" t="n">
-        <v>11.08187310194409</v>
+        <v>11.71454249497554</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.024799604769431, 15.138946599118743]</t>
+          <t>[7.98911937657508, 15.439965613376]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.7046580338409e-06</v>
+        <v>9.9783316498403e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7046580338409e-06</v>
+        <v>9.9783316498403e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>16.39029029029034</v>
+        <v>16.99659659659668</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.36094094094098</v>
+        <v>5.794294294294327</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.4196396396397</v>
+        <v>28.19889889889904</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3355265955015114</v>
+        <v>0.01269050623252155</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3355265955015114</v>
+        <v>0.01269050623252155</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.343563527549953</v>
+        <v>8.158404690597763</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.5127940757589844, 12.19992113085889]</t>
+          <t>[1.2421844964696191, 15.074624884725907]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2713883744953229</v>
+        <v>0.02182703162992272</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2713883744953229</v>
+        <v>0.02182703162992272</v>
       </c>
       <c r="P10" t="n">
-        <v>2.295658295415965</v>
+        <v>1.981184556317887</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.8302106712189241, 5.421527262050854]</t>
+          <t>[0.9497106920761933, 3.01265842055958]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1460615176237745</v>
+        <v>0.0003502251561535719</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1460615176237745</v>
+        <v>0.0003502251561535719</v>
       </c>
       <c r="T10" t="n">
-        <v>12.88358211565295</v>
+        <v>11.26000008968324</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.721090860571026, 17.046073370734867]</t>
+          <t>[7.561503202746406, 14.958496976620077]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.402229277136513e-07</v>
+        <v>1.988710482958567e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.402229277136513e-07</v>
+        <v>1.988710482958567e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>14.2348548548549</v>
+        <v>15.54234234234242</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.075985985985994</v>
+        <v>11.81581581581588</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.3937237237238</v>
+        <v>19.26886886886896</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.35000000000021</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02483561101093301</v>
+        <v>0.1206795170540864</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02483561101093301</v>
+        <v>0.1206795170540864</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.486201185714343</v>
+        <v>5.328717715680499</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.2822977359667931, 14.690104635461893]</t>
+          <t>[-1.4408934188978275, 12.098328850258826]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.04201474591956877</v>
+        <v>0.1198770348314402</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04201474591956877</v>
+        <v>0.1198770348314402</v>
       </c>
       <c r="P11" t="n">
-        <v>2.647868883205812</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.3019212798660411, 3.9938164865455827]</t>
+          <t>[-0.723289599925578, 5.490711484652431]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0002622270572754104</v>
+        <v>0.1292941735744406</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0002622270572754104</v>
+        <v>0.1292941735744406</v>
       </c>
       <c r="T11" t="n">
-        <v>10.61826116436204</v>
+        <v>11.39859211463786</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.826741888535693, 14.409780440188392]</t>
+          <t>[7.7890706112557755, 15.008113618019953]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.063453593408425e-06</v>
+        <v>9.094910535800693e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.063453593408425e-06</v>
+        <v>9.094910535800693e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>13.50980980980993</v>
+        <v>14.41701701701714</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.507907907907985</v>
+        <v>2.929909909909934</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.51171171171188</v>
+        <v>25.90412412412434</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.35000000000021</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1521991590874048</v>
+        <v>0.07785898987529982</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1521991590874048</v>
+        <v>0.07785898987529982</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.269134053376574</v>
+        <v>7.029037970766654</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.7613616239054952, 12.299629730658642]</t>
+          <t>[-0.6423745760573354, 14.700450517590644]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1381594514765532</v>
+        <v>0.07155801802404138</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1381594514765532</v>
+        <v>0.07155801802404138</v>
       </c>
       <c r="P12" t="n">
-        <v>2.924605773612119</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.9497106920761929, 4.899500855148046]</t>
+          <t>[1.616395018964118, 4.484395519538584]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.004601787746044916</v>
+        <v>9.520081790892476e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.004601787746044916</v>
+        <v>9.520081790892476e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>9.577475617605298</v>
+        <v>10.72501456409105</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.749737379306539, 13.405213855904059]</t>
+          <t>[6.355875877688104, 15.094153250493992]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.063479768782855e-06</v>
+        <v>1.107994576821092e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>8.063479768782855e-06</v>
+        <v>1.107994576821092e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>12.4813813813815</v>
+        <v>11.95217217217227</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.142142142142188</v>
+        <v>6.650430430430485</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.8206206206208</v>
+        <v>17.25391391391405</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.35000000000021</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03527698837847826</v>
+        <v>0.07150651624393223</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03527698837847826</v>
+        <v>0.07150651624393223</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>8.591466070336976</v>
+        <v>6.281338563367339</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.8026179364860191, 16.380314204187933]</t>
+          <t>[-0.039179998178846986, 12.601857124913526]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.03138002332336498</v>
+        <v>0.05137684980065371</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03138002332336498</v>
+        <v>0.05137684980065371</v>
       </c>
       <c r="P13" t="n">
-        <v>-3.069263693597235</v>
+        <v>3.138447916198813</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-4.339737599553468, -1.7987897876410037]</t>
+          <t>[1.7547634641672727, 4.522132368230352]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.436417756184305e-05</v>
+        <v>3.812705683392537e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.436417756184305e-05</v>
+        <v>3.812705683392537e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>12.50240191899748</v>
+        <v>11.26374540152079</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.885999502265449, 17.118804335729514]</t>
+          <t>[7.426330682941494, 15.101160120100094]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.99736584605148e-06</v>
+        <v>4.219129547955447e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.99736584605148e-06</v>
+        <v>4.219129547955447e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>11.40620620620631</v>
+        <v>11.62662662662672</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.684784784784849</v>
+        <v>6.510910910910966</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.12762762762777</v>
+        <v>16.74234234234248</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.35000000000021</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1839247880190824</v>
+        <v>0.1900013042024614</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1839247880190824</v>
+        <v>0.1900013042024614</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.173422445035666</v>
+        <v>6.100556397390053</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.226477617982887, 12.573322508054218]</t>
+          <t>[-2.6896004433203657, 14.89071323810047]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.165972521363152</v>
+        <v>0.1690168447624683</v>
       </c>
       <c r="O14" t="n">
-        <v>0.165972521363152</v>
+        <v>0.1690168447624683</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.515789912784619</v>
+        <v>-2.616421509296003</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-5.56618518203597, 0.5346053564667317]</t>
+          <t>[-5.7548694254948165, 0.5220264069028095]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1036427644797386</v>
+        <v>0.1000657214283338</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1036427644797386</v>
+        <v>0.1000657214283338</v>
       </c>
       <c r="T14" t="n">
-        <v>10.94481324928497</v>
+        <v>12.37341052947012</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.002041768569191, 14.887584730000755]</t>
+          <t>[7.6667755303608285, 17.080045528579404]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.258479886301345e-06</v>
+        <v>3.425337608220502e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>1.258479886301345e-06</v>
+        <v>3.425337608220502e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>9.349349349349435</v>
+        <v>9.673353353353431</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.986736736736756</v>
+        <v>-1.930020020020041</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.68543543543563</v>
+        <v>21.2767267267269</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.35000000000021</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04944659253152728</v>
+        <v>0.04104128205380153</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04944659253152728</v>
+        <v>0.04104128205380153</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>8.033499887740579</v>
+        <v>7.308980454164278</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.9431314831643789, 17.010131258645536]</t>
+          <t>[-0.425023214753077, 15.042984123081633]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.07816803261438388</v>
+        <v>0.06339397371749245</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07816803261438388</v>
+        <v>0.06339397371749245</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.364842518017542</v>
+        <v>-2.654158357987773</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-5.459264110742624, 0.7295790747075399]</t>
+          <t>[-4.352316549117392, -0.9560001668581548]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1307502289438305</v>
+        <v>0.002916568611486481</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1307502289438305</v>
+        <v>0.002916568611486481</v>
       </c>
       <c r="T15" t="n">
-        <v>11.81800912641367</v>
+        <v>11.26596480473443</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.314277309105998, 16.32174094372133]</t>
+          <t>[7.2597325180149594, 15.272197091453908]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.540618634723103e-06</v>
+        <v>9.823859412616542e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>3.540618634723103e-06</v>
+        <v>9.823859412616542e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>8.788388388388467</v>
+        <v>9.812872872872953</v>
       </c>
       <c r="Y15" t="n">
-        <v>-2.711311311311338</v>
+        <v>3.53449449449452</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.28808808808827</v>
+        <v>16.09125125125139</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.35000000000021</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2130147486413809</v>
+        <v>0.2752947804972504</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2130147486413809</v>
+        <v>0.2752947804972504</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.911420148963533</v>
+        <v>4.963646282136419</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-3.0462139837302296, 14.869054281657295]</t>
+          <t>[-3.5551358880207298, 13.482428452293568]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.190492032675688</v>
+        <v>0.2467456887569224</v>
       </c>
       <c r="O16" t="n">
-        <v>0.190492032675688</v>
+        <v>0.2467456887569224</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.742211004935235</v>
+        <v>-2.515789912784619</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.6856852028932385, 0.2012631930227693]</t>
+          <t>[-5.635369404637546, 0.6037895790683088]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.06709642231168655</v>
+        <v>0.1113017003053964</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06709642231168655</v>
+        <v>0.1113017003053964</v>
       </c>
       <c r="T16" t="n">
-        <v>12.02084214388748</v>
+        <v>13.16743302849718</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[7.274510298593455, 16.7671739891815]</t>
+          <t>[8.817852909887609, 17.51701314710674]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>6.566266260943365e-06</v>
+        <v>2.238849110547392e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>6.566266260943365e-06</v>
+        <v>2.238849110547392e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>10.19079079079088</v>
+        <v>9.301301301301377</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.7479479479479529</v>
+        <v>-2.232312312312331</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.12952952952972</v>
+        <v>20.83491491491509</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.35000000000021</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2888033610532984</v>
+        <v>0.3440354465191318</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2888033610532984</v>
+        <v>0.3440354465191318</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>4.814694182911917</v>
+        <v>4.498904808780811</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-3.2324206565878777, 12.861809022411713]</t>
+          <t>[-3.6482218660314096, 12.646031483593031]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.2344775950653952</v>
+        <v>0.271957440182764</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2344775950653952</v>
+        <v>0.271957440182764</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.427737265837158</v>
+        <v>-2.27678987107008</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-5.547316757690085, 0.69184222601577]</t>
+          <t>[-5.40894831248693, 0.8553685703467702]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1240207412265242</v>
+        <v>0.1501268653952601</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1240207412265242</v>
+        <v>0.1501268653952601</v>
       </c>
       <c r="T17" t="n">
-        <v>11.3469485312345</v>
+        <v>11.19430786131061</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[7.050748857242649, 15.643148205226343]</t>
+          <t>[6.874393660468224, 15.514222062152994]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.152558077701428e-06</v>
+        <v>4.419033611480216e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>3.152558077701428e-06</v>
+        <v>4.419033611480216e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>9.022122122122203</v>
+        <v>8.417677677677746</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.571071071071094</v>
+        <v>-3.162442442442467</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.6153153153155</v>
+        <v>19.99779779779796</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_2_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_2_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2350588200591702</v>
+        <v>0.06824080987744641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2350588200591702</v>
+        <v>0.06824080987744641</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.726471369634215</v>
+        <v>8.658943763070846</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.874005894916083, 14.326948634184513]</t>
+          <t>[-0.2424645903169882, 17.56035211645868]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1866328995261668</v>
+        <v>0.05629739445851079</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1866328995261668</v>
+        <v>0.05629739445851079</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.157263359880925</v>
+        <v>-1.358526552903694</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.283132326515813, 1.9686056067539637]</t>
+          <t>[-2.893158399702312, 0.17610529389492413]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4597478254832803</v>
+        <v>0.08133632561922699</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4597478254832803</v>
+        <v>0.08133632561922699</v>
       </c>
       <c r="T2" t="n">
-        <v>13.26178477560419</v>
+        <v>13.33012959254552</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.601686479455184, 17.921883071753193]</t>
+          <t>[8.281716949180874, 18.378542235910167]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.797539856024827e-07</v>
+        <v>3.167570814976983e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>7.797539856024827e-07</v>
+        <v>3.167570814976983e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>4.180980980981001</v>
+        <v>4.834594594594606</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.112212212212244</v>
+        <v>-0.6267067067067105</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.47417417417425</v>
+        <v>10.29589589589592</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3203274233532362</v>
+        <v>0.2346968688394462</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3203274233532362</v>
+        <v>0.2346968688394462</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.252516734964397</v>
+        <v>5.224694883794735</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.5047789921010395, 11.009812462029833]</t>
+          <t>[-2.654561281048668, 13.103951048638137]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2114892915638718</v>
+        <v>0.1884153195006293</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2114892915638718</v>
+        <v>0.1884153195006293</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03144737390980712</v>
+        <v>-1.283052855520156</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.018947895341543, 3.081842643161157]</t>
+          <t>[-4.352316549117391, 1.7862108380770794]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.9835257505258241</v>
+        <v>0.404262142686217</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9835257505258241</v>
+        <v>0.404262142686217</v>
       </c>
       <c r="T3" t="n">
-        <v>11.46072010250021</v>
+        <v>10.61942726799655</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.402289872890225, 15.519150332110186]</t>
+          <t>[6.401990435048517, 14.836864100944588]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.059776504560801e-07</v>
+        <v>7.248133540027624e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>9.059776504560801e-07</v>
+        <v>7.248133540027624e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>22.5863863863865</v>
+        <v>4.566006006006017</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.56586586586593</v>
+        <v>-6.356596596596614</v>
       </c>
       <c r="Z3" t="n">
-        <v>33.60690690690707</v>
+        <v>15.48860860860865</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1905841411259122</v>
+        <v>0.06738692223385256</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1905841411259122</v>
+        <v>0.06738692223385256</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.968635449726229</v>
+        <v>6.729499696770509</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.316315395219778, 12.253586294672235]</t>
+          <t>[-1.0503224601348133, 14.509321853675832]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1763394666888563</v>
+        <v>0.08830733471488617</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1763394666888563</v>
+        <v>0.08830733471488617</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.6037895790683088</v>
+        <v>-1.006315965113847</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.679342747447506, 2.4717635893108882]</t>
+          <t>[-3.144737390980774, 1.1321054607530794]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.694410994680541</v>
+        <v>0.3482868319509436</v>
       </c>
       <c r="S4" t="n">
-        <v>0.694410994680541</v>
+        <v>0.3482868319509436</v>
       </c>
       <c r="T4" t="n">
-        <v>10.13936590407748</v>
+        <v>10.71949925782361</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.272633753967122, 14.006098054187843]</t>
+          <t>[6.726255964107537, 14.71274255153969]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.585132100747401e-06</v>
+        <v>2.349591108341542e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.585132100747401e-06</v>
+        <v>2.349591108341542e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>2.181381381381392</v>
+        <v>3.58118118118119</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.930030030030075</v>
+        <v>-4.028828828828841</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.29279279279286</v>
+        <v>11.19119119119122</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4593964802388412</v>
+        <v>0.502050889908825</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4593964802388412</v>
+        <v>0.502050889908825</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.22474695093914</v>
+        <v>3.331425485089497</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.585798112881198, 13.035292014759479]</t>
+          <t>[-4.724112491769279, 11.386963461948273]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3393145053080304</v>
+        <v>0.4092738591492882</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3393145053080304</v>
+        <v>0.4092738591492882</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1509473947670772</v>
+        <v>-0.8427896207828471</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.2579479370560818, 2.9560531475219274]</t>
+          <t>[-3.9812375369816593, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9224850234278157</v>
+        <v>0.5912705217958192</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9224850234278157</v>
+        <v>0.5912705217958192</v>
       </c>
       <c r="T5" t="n">
-        <v>11.35569502648722</v>
+        <v>10.70068136268875</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.4518670925978405, 16.259522960376597]</t>
+          <t>[6.662815716217052, 14.738547009160454]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.790272161945495e-05</v>
+        <v>2.967205113835192e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.790272161945495e-05</v>
+        <v>2.967205113835192e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5453453453453463</v>
+        <v>2.999239239239245</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.67967967967973</v>
+        <v>-8.169569569569592</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.77037037037043</v>
+        <v>14.16804804804808</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1426683896670911</v>
+        <v>0.265521606211389</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1426683896670911</v>
+        <v>0.265521606211389</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.986278241489513</v>
+        <v>4.295253598444608</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.6664472826726673, 13.639003765651694]</t>
+          <t>[-2.8040349800732507, 11.394542176962467]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1221427218393907</v>
+        <v>0.2293519208878909</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1221427218393907</v>
+        <v>0.2293519208878909</v>
       </c>
       <c r="P6" t="n">
-        <v>1.050342288587578</v>
+        <v>0.2956053147521933</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.9623161319720026, 4.063000709147159]</t>
+          <t>[-2.811395227536811, 3.4026058570411974]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.4861690084023489</v>
+        <v>0.8488978411912242</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4861690084023489</v>
+        <v>0.8488978411912242</v>
       </c>
       <c r="T6" t="n">
-        <v>11.41230699560936</v>
+        <v>7.988518456472297</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.253625971200991, 15.57098802001772]</t>
+          <t>[4.210588831478223, 11.766448081466372]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.562911660979438e-06</v>
+        <v>0.0001032639247113831</v>
       </c>
       <c r="W6" t="n">
-        <v>1.562911660979438e-06</v>
+        <v>0.0001032639247113831</v>
       </c>
       <c r="X6" t="n">
-        <v>18.9053053053054</v>
+        <v>21.30802802802808</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.02112112112116</v>
+        <v>10.25113113113116</v>
       </c>
       <c r="Z6" t="n">
-        <v>29.78948948948963</v>
+        <v>32.36492492492501</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5351925537933921</v>
+        <v>0.09738708000953744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5351925537933921</v>
+        <v>0.09738708000953744</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.364654037275177</v>
+        <v>7.738479296895838</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.503688130155959, 11.232996204706314]</t>
+          <t>[-1.558676476724056, 17.03563507051573]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3936559123619738</v>
+        <v>0.1005875579239093</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3936559123619738</v>
+        <v>0.1005875579239093</v>
       </c>
       <c r="P7" t="n">
-        <v>1.037763339023655</v>
+        <v>0.6981317007977319</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.094395102393195, 4.1699217804405055]</t>
+          <t>[-2.289368820634003, 3.685632222229467]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5079733878730888</v>
+        <v>0.640154070650885</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5079733878730888</v>
+        <v>0.640154070650885</v>
       </c>
       <c r="T7" t="n">
-        <v>10.4673292570024</v>
+        <v>12.76057413380779</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.279595605950922, 14.655062908053873]</t>
+          <t>[7.7999597887023695, 17.721188478913216]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.205694177254585e-06</v>
+        <v>5.022979052249354e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>8.205694177254585e-06</v>
+        <v>5.022979052249354e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>18.95075075075084</v>
+        <v>19.87555555555561</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.634834834834875</v>
+        <v>9.243923923923949</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.26666666666681</v>
+        <v>30.50718718718726</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06248791481809868</v>
+        <v>0.1183455385058566</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06248791481809868</v>
+        <v>0.1183455385058566</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.770076371800455</v>
+        <v>7.028372497371467</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.551369532505765, 14.091522276106675]</t>
+          <t>[-2.2189195659038896, 16.275664560646824]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06907999543114807</v>
+        <v>0.1328160858700569</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06907999543114807</v>
+        <v>0.1328160858700569</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5849211547224229</v>
+        <v>0.8113422468730391</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, 2.4528951649650015]</t>
+          <t>[-2.2076056484685047, 3.830290142214583]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5314406762817514</v>
+        <v>0.5909773901403463</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5314406762817514</v>
+        <v>0.5909773901403463</v>
       </c>
       <c r="T8" t="n">
-        <v>12.98952353645917</v>
+        <v>12.94167018737745</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.997130499047518, 16.98191657387083]</t>
+          <t>[8.262810240036963, 17.62053013471793]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.701262534823059e-08</v>
+        <v>1.346888529374368e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.701262534823059e-08</v>
+        <v>1.346888529374368e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>20.58678678678689</v>
+        <v>19.47267267267272</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.83813813813821</v>
+        <v>8.729129129129147</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.33543543543556</v>
+        <v>30.2162162162163</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3156069291223451</v>
+        <v>0.08418330302651833</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3156069291223451</v>
+        <v>0.08418330302651833</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.121649384547233</v>
+        <v>5.685696390409721</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.407857064980549, 10.651155834075015]</t>
+          <t>[-0.5162863522216732, 11.887679133041114]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2101288365450942</v>
+        <v>0.07141166793799036</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2101288365450942</v>
+        <v>0.07141166793799036</v>
       </c>
       <c r="P9" t="n">
-        <v>1.578658170272348</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.522052897234695, 4.679369237779391]</t>
+          <t>[-0.6603948521059602, 3.012658420559581]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3106383861146922</v>
+        <v>0.2036910110378454</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3106383861146922</v>
+        <v>0.2036910110378454</v>
       </c>
       <c r="T9" t="n">
-        <v>11.71454249497554</v>
+        <v>10.0982627843931</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.98911937657508, 15.439965613376]</t>
+          <t>[6.651172148688618, 13.545353420097582]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.9783316498403e-08</v>
+        <v>4.388996903692544e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>9.9783316498403e-08</v>
+        <v>4.388996903692544e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>16.99659659659668</v>
+        <v>18.17449449449454</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.794294294294327</v>
+        <v>11.63883883883887</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.19889889889904</v>
+        <v>24.71015015015021</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01269050623252155</v>
+        <v>0.07730422519875668</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01269050623252155</v>
+        <v>0.07730422519875668</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.158404690597763</v>
+        <v>6.496074399781548</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[1.2421844964696191, 15.074624884725907]</t>
+          <t>[-1.3554742872489438, 14.347623086812039]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.02182703162992272</v>
+        <v>0.1025820098785211</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02182703162992272</v>
+        <v>0.1025820098785211</v>
       </c>
       <c r="P10" t="n">
-        <v>1.981184556317887</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.9497106920761933, 3.01265842055958]</t>
+          <t>[0.29560531475219287, 4.773711359508814]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0003502251561535719</v>
+        <v>0.02739701803143491</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0003502251561535719</v>
+        <v>0.02739701803143491</v>
       </c>
       <c r="T10" t="n">
-        <v>11.26000008968324</v>
+        <v>12.12546401406326</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.561503202746406, 14.958496976620077]</t>
+          <t>[8.069544568755058, 16.18138345937146]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.988710482958567e-07</v>
+        <v>2.903039184598555e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.988710482958567e-07</v>
+        <v>2.903039184598555e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>15.54234234234242</v>
+        <v>13.33989989989993</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.81581581581588</v>
+        <v>5.371771771771786</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.26886886886896</v>
+        <v>21.30802802802808</v>
       </c>
     </row>
     <row r="11">
@@ -1361,63 +1361,63 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1206795170540864</v>
+        <v>0.1648314941696007</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1206795170540864</v>
+        <v>0.1648314941696007</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.328717715680499</v>
+        <v>5.739126890110743</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.4408934188978275, 12.098328850258826]</t>
+          <t>[-2.560027372866802, 14.038281153088288]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1198770348314402</v>
+        <v>0.1705189390237083</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1198770348314402</v>
+        <v>0.1705189390237083</v>
       </c>
       <c r="P11" t="n">
-        <v>2.383710942363427</v>
+        <v>2.207605648468504</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.723289599925578, 5.490711484652431]</t>
+          <t>[-0.8742369946926543, 5.289448291629662]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1292941735744406</v>
+        <v>0.156014297236742</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1292941735744406</v>
+        <v>0.156014297236742</v>
       </c>
       <c r="T11" t="n">
-        <v>11.39859211463786</v>
+        <v>10.67687178825193</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.7890706112557755, 15.008113618019953]</t>
+          <t>[6.472490908201337, 14.881252668302515]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.094910535800693e-08</v>
+        <v>6.272074696500596e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>9.094910535800693e-08</v>
+        <v>6.272074696500596e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>14.41701701701714</v>
+        <v>15.06810810810823</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.929909909909934</v>
+        <v>3.674014014014043</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.90412412412434</v>
+        <v>26.46220220220242</v>
       </c>
     </row>
     <row r="12">
@@ -1447,63 +1447,63 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07785898987529982</v>
+        <v>0.0895761609726532</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07785898987529982</v>
+        <v>0.0895761609726532</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.029037970766654</v>
+        <v>7.148712203728259</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.6423745760573354, 14.700450517590644]</t>
+          <t>[-1.1462168961826578, 15.443641303639176]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07155801802404138</v>
+        <v>0.08944480475894734</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07155801802404138</v>
+        <v>0.08944480475894734</v>
       </c>
       <c r="P12" t="n">
-        <v>3.050395269251351</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.616395018964118, 4.484395519538584]</t>
+          <t>[1.0000264903318854, 4.572448166486046]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>9.520081790892476e-05</v>
+        <v>0.002967978303410668</v>
       </c>
       <c r="S12" t="n">
-        <v>9.520081790892476e-05</v>
+        <v>0.002967978303410668</v>
       </c>
       <c r="T12" t="n">
-        <v>10.72501456409105</v>
+        <v>12.11320873560902</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.355875877688104, 15.094153250493992]</t>
+          <t>[7.548227109939327, 16.67819036127871]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.107994576821092e-05</v>
+        <v>2.899010441037575e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.107994576821092e-05</v>
+        <v>2.899010441037575e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>11.95217217217227</v>
+        <v>12.92880880880892</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.650430430430485</v>
+        <v>6.324884884884934</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.25391391391405</v>
+        <v>19.5327327327329</v>
       </c>
     </row>
     <row r="13">
@@ -1533,63 +1533,63 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07150651624393223</v>
+        <v>0.06961650987750068</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07150651624393223</v>
+        <v>0.06961650987750068</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.281338563367339</v>
+        <v>7.199795707984793</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.039179998178846986, 12.601857124913526]</t>
+          <t>[-1.0682646382792278, 15.467856054248813]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.05137684980065371</v>
+        <v>0.08626098472460719</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05137684980065371</v>
+        <v>0.08626098472460719</v>
       </c>
       <c r="P13" t="n">
-        <v>3.138447916198813</v>
+        <v>2.773658378845043</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.7547634641672727, 4.522132368230352]</t>
+          <t>[1.0629212381515014, 4.484395519538584]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.812705683392537e-05</v>
+        <v>0.002093145387098705</v>
       </c>
       <c r="S13" t="n">
-        <v>3.812705683392537e-05</v>
+        <v>0.002093145387098705</v>
       </c>
       <c r="T13" t="n">
-        <v>11.26374540152079</v>
+        <v>11.94708458603746</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.426330682941494, 15.101160120100094]</t>
+          <t>[7.584620614915398, 16.309548557159523]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.219129547955447e-07</v>
+        <v>1.623861052735265e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>4.219129547955447e-07</v>
+        <v>1.623861052735265e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>11.62662662662672</v>
+        <v>12.97531531531542</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.510910910910966</v>
+        <v>6.650430430430484</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.74234234234248</v>
+        <v>19.30020020020036</v>
       </c>
     </row>
     <row r="14">
@@ -1619,63 +1619,63 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1900013042024614</v>
+        <v>0.2039494905485959</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1900013042024614</v>
+        <v>0.2039494905485959</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.100556397390053</v>
+        <v>5.844941182835421</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.6896004433203657, 14.89071323810047]</t>
+          <t>[-2.5477179094995703, 14.237600275170411]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1690168447624683</v>
+        <v>0.1675705227318907</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1690168447624683</v>
+        <v>0.1675705227318907</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.616421509296003</v>
+        <v>-2.591263610168157</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-5.7548694254948165, 0.5220264069028095]</t>
+          <t>[-5.6919746776752005, 0.5094474573388856]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1000657214283338</v>
+        <v>0.09926552039318892</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1000657214283338</v>
+        <v>0.09926552039318892</v>
       </c>
       <c r="T14" t="n">
-        <v>12.37341052947012</v>
+        <v>11.92663441725359</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.6667755303608285, 17.080045528579404]</t>
+          <t>[7.314352766410636, 16.538916068096547]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.425337608220502e-06</v>
+        <v>4.586019878960457e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>3.425337608220502e-06</v>
+        <v>4.586019878960457e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>9.673353353353431</v>
+        <v>9.58034034034042</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.930020020020041</v>
+        <v>-1.883513513513527</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.2767267267269</v>
+        <v>21.04419419419437</v>
       </c>
     </row>
     <row r="15">
@@ -1705,63 +1705,63 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04104128205380153</v>
+        <v>0.2525168259384927</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04104128205380153</v>
+        <v>0.2525168259384927</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>7.308980454164278</v>
+        <v>4.97040137683344</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.425023214753077, 15.042984123081633]</t>
+          <t>[-2.82178697398526, 12.76258972765214]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.06339397371749245</v>
+        <v>0.2054587603297862</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06339397371749245</v>
+        <v>0.2054587603297862</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.654158357987773</v>
+        <v>-2.729632055371312</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-4.352316549117392, -0.9560001668581548]</t>
+          <t>[-5.868079971570125, 0.40881586082750143]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.002916568611486481</v>
+        <v>0.08663070663384231</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002916568611486481</v>
+        <v>0.08663070663384231</v>
       </c>
       <c r="T15" t="n">
-        <v>11.26596480473443</v>
+        <v>12.74774267832511</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.2597325180149594, 15.272197091453908]</t>
+          <t>[8.507245070755495, 16.988240285894733]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9.823859412616542e-07</v>
+        <v>2.589103165195894e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>9.823859412616542e-07</v>
+        <v>2.589103165195894e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>9.812872872872953</v>
+        <v>10.09191191191199</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.53449449449452</v>
+        <v>-1.511461461461478</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.09125125125139</v>
+        <v>21.69528528528546</v>
       </c>
     </row>
     <row r="16">
@@ -1791,63 +1791,63 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2752947804972504</v>
+        <v>0.3512462468405553</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2752947804972504</v>
+        <v>0.3512462468405553</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>4.963646282136419</v>
+        <v>5.110317567499468</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-3.5551358880207298, 13.482428452293568]</t>
+          <t>[-4.07820114522189, 14.298836280220826]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.2467456887569224</v>
+        <v>0.2685841284769273</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2467456887569224</v>
+        <v>0.2685841284769273</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.515789912784619</v>
+        <v>-2.64157940842385</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.635369404637546, 0.6037895790683088]</t>
+          <t>[-5.7297115263669705, 0.4465527095192705]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1113017003053964</v>
+        <v>0.09178070642631431</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1113017003053964</v>
+        <v>0.09178070642631431</v>
       </c>
       <c r="T16" t="n">
-        <v>13.16743302849718</v>
+        <v>14.86988656082262</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[8.817852909887609, 17.51701314710674]</t>
+          <t>[9.8604798144894, 19.879293307155848]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.238849110547392e-07</v>
+        <v>3.358728113411757e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>2.238849110547392e-07</v>
+        <v>3.358728113411757e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>9.301301301301377</v>
+        <v>9.766366366366448</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.232312312312331</v>
+        <v>-1.650980980980997</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.83491491491509</v>
+        <v>21.18371371371389</v>
       </c>
     </row>
     <row r="17">
@@ -1877,63 +1877,63 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3440354465191318</v>
+        <v>0.1432278329581389</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3440354465191318</v>
+        <v>0.1432278329581389</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>4.498904808780811</v>
+        <v>5.676588090119211</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-3.6482218660314096, 12.646031483593031]</t>
+          <t>[-2.259176291872926, 13.612352472111349]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.271957440182764</v>
+        <v>0.1565852798613852</v>
       </c>
       <c r="O17" t="n">
-        <v>0.271957440182764</v>
+        <v>0.1565852798613852</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.27678987107008</v>
+        <v>-2.566105711040311</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-5.40894831248693, 0.8553685703467702]</t>
+          <t>[-5.635369404637546, 0.5031579825569237]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1501268653952601</v>
+        <v>0.09912207225507053</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1501268653952601</v>
+        <v>0.09912207225507053</v>
       </c>
       <c r="T17" t="n">
-        <v>11.19430786131061</v>
+        <v>10.252972795568</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[6.874393660468224, 15.514222062152994]</t>
+          <t>[6.225049804102829, 14.280895787033161]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>4.419033611480216e-06</v>
+        <v>6.023059063720027e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.419033611480216e-06</v>
+        <v>6.023059063720027e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>8.417677677677746</v>
+        <v>9.487327327327405</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3.162442442442467</v>
+        <v>-1.860260260260276</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.99779779779796</v>
+        <v>20.83491491491509</v>
       </c>
     </row>
   </sheetData>
